--- a/data/MisInfoText/Analysis_output/MisInfoText_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/MisInfoText_lexical_diversity.xlsx
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5803921568627451</v>
+        <v>0.5304054054054054</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4023121387283237</v>
+        <v>0.3512195121951219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5579399141630901</v>
+        <v>0.5133079847908745</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4894179894179894</v>
+        <v>0.4244444444444445</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.4764468371467026</v>
+        <v>0.431980906921241</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4087136929460581</v>
+        <v>0.3670309653916211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.4937759336099585</v>
+        <v>0.4499089253187614</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.4430714916151809</v>
+        <v>0.3818722139673105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4734177215189874</v>
+        <v>0.4182590233545648</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.3242290748898679</v>
+        <v>0.2996870109546166</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4844961240310077</v>
+        <v>0.4292763157894737</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.46267087276551</v>
+        <v>0.4164358264081256</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5252100840336135</v>
+        <v>0.456140350877193</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.6580310880829016</v>
+        <v>0.5895196506550219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.3706377858002406</v>
+        <v>0.3336820083682008</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.4361702127659575</v>
+        <v>0.397025171624714</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2677,7 @@
         <v>565</v>
       </c>
       <c r="B2">
-        <v>0.5178997613365155</v>
+        <v>0.4726890756302521</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>566</v>
       </c>
       <c r="B3">
-        <v>0.5634674922600619</v>
+        <v>0.5177111716621253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>567</v>
       </c>
       <c r="B4">
-        <v>0.3136762860727729</v>
+        <v>0.2869222096956032</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>568</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8837209302325582</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>569</v>
       </c>
       <c r="B6">
-        <v>0.5467625899280576</v>
+        <v>0.4968553459119497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>570</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>571</v>
       </c>
       <c r="B8">
-        <v>0.896551724137931</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>572</v>
       </c>
       <c r="B9">
-        <v>0.5016181229773463</v>
+        <v>0.4626647144948756</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>573</v>
       </c>
       <c r="B10">
-        <v>0.5852090032154341</v>
+        <v>0.5470588235294118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>574</v>
       </c>
       <c r="B11">
-        <v>0.5029585798816568</v>
+        <v>0.4522184300341297</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>575</v>
       </c>
       <c r="B12">
-        <v>0.7872340425531915</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>576</v>
       </c>
       <c r="B13">
-        <v>0.3503562945368171</v>
+        <v>0.3132036847492323</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>577</v>
       </c>
       <c r="B14">
-        <v>0.4225663716814159</v>
+        <v>0.3814634146341463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>578</v>
       </c>
       <c r="B15">
-        <v>0.4525790349417637</v>
+        <v>0.4175182481751825</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>579</v>
       </c>
       <c r="B16">
-        <v>0.475</v>
+        <v>0.4386459802538787</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>580</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.426497277676951</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>581</v>
       </c>
       <c r="B18">
-        <v>0.5737051792828686</v>
+        <v>0.5241379310344828</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>582</v>
       </c>
       <c r="B19">
-        <v>0.5225806451612903</v>
+        <v>0.4970414201183432</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>583</v>
       </c>
       <c r="B20">
-        <v>0.3773584905660378</v>
+        <v>0.3629032258064516</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>584</v>
       </c>
       <c r="B21">
-        <v>0.5591397849462365</v>
+        <v>0.5244299674267101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>585</v>
       </c>
       <c r="B22">
-        <v>0.6173913043478261</v>
+        <v>0.5586734693877551</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>586</v>
       </c>
       <c r="B23">
-        <v>0.4820846905537459</v>
+        <v>0.4417344173441735</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>587</v>
       </c>
       <c r="B24">
-        <v>0.4070175438596491</v>
+        <v>0.3772582359192349</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>588</v>
       </c>
       <c r="B25">
-        <v>0.7922077922077922</v>
+        <v>0.7701149425287356</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>589</v>
       </c>
       <c r="B26">
-        <v>0.5038610038610039</v>
+        <v>0.4686411149825784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>590</v>
       </c>
       <c r="B27">
-        <v>0.6335403726708074</v>
+        <v>0.5910364145658263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>591</v>
       </c>
       <c r="B28">
-        <v>0.6587677725118484</v>
+        <v>0.6217391304347826</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>592</v>
       </c>
       <c r="B29">
-        <v>0.6917293233082706</v>
+        <v>0.6242038216560509</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>593</v>
       </c>
       <c r="B30">
-        <v>0.5087281795511222</v>
+        <v>0.4494845360824742</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>594</v>
       </c>
       <c r="B31">
-        <v>0.3868686868686869</v>
+        <v>0.3517179023508137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>595</v>
       </c>
       <c r="B32">
-        <v>0.5481727574750831</v>
+        <v>0.5119760479041916</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>596</v>
       </c>
       <c r="B33">
-        <v>0.6753246753246753</v>
+        <v>0.6568047337278107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>597</v>
       </c>
       <c r="B34">
-        <v>0.5009596928982726</v>
+        <v>0.4415156507413509</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>598</v>
       </c>
       <c r="B35">
-        <v>0.4905660377358491</v>
+        <v>0.4568393094289508</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>599</v>
       </c>
       <c r="B36">
-        <v>0.664804469273743</v>
+        <v>0.640625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>600</v>
       </c>
       <c r="B37">
-        <v>0.4175152749490835</v>
+        <v>0.3630252100840336</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>601</v>
       </c>
       <c r="B38">
-        <v>0.4723809523809524</v>
+        <v>0.4320137693631669</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>602</v>
       </c>
       <c r="B39">
-        <v>0.3577712609970675</v>
+        <v>0.3186440677966101</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>603</v>
       </c>
       <c r="B40">
-        <v>0.537712895377129</v>
+        <v>0.4771784232365145</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>604</v>
       </c>
       <c r="B41">
-        <v>0.6346153846153846</v>
+        <v>0.5719063545150501</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>605</v>
       </c>
       <c r="B42">
-        <v>0.4197292069632495</v>
+        <v>0.3818965517241379</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>606</v>
       </c>
       <c r="B43">
-        <v>0.4150684931506849</v>
+        <v>0.3678025851938895</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>607</v>
       </c>
       <c r="B44">
-        <v>0.574468085106383</v>
+        <v>0.4985422740524781</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>608</v>
       </c>
       <c r="B45">
-        <v>0.518595041322314</v>
+        <v>0.4693140794223827</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>609</v>
       </c>
       <c r="B46">
-        <v>0.5276752767527675</v>
+        <v>0.4674922600619195</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>610</v>
       </c>
       <c r="B47">
-        <v>0.7183908045977011</v>
+        <v>0.6118721461187214</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>611</v>
       </c>
       <c r="B48">
-        <v>0.4681933842239186</v>
+        <v>0.4217391304347826</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>612</v>
       </c>
       <c r="B49">
-        <v>0.4449760765550239</v>
+        <v>0.4053763440860215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>613</v>
       </c>
       <c r="B50">
-        <v>0.54421768707483</v>
+        <v>0.5077399380804953</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>614</v>
       </c>
       <c r="B51">
-        <v>0.9090909090909091</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>615</v>
       </c>
       <c r="B52">
-        <v>0.5266272189349113</v>
+        <v>0.489247311827957</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>616</v>
       </c>
       <c r="B53">
-        <v>0.3866039952996475</v>
+        <v>0.3582718651211802</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>617</v>
       </c>
       <c r="B54">
-        <v>0.4295081967213115</v>
+        <v>0.3877840909090909</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>618</v>
       </c>
       <c r="B55">
-        <v>0.4824707846410685</v>
+        <v>0.4120879120879121</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>619</v>
       </c>
       <c r="B56">
-        <v>0.4469525959367946</v>
+        <v>0.3836363636363636</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>620</v>
       </c>
       <c r="B57">
-        <v>0.4842406876790831</v>
+        <v>0.4593175853018373</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>621</v>
       </c>
       <c r="B58">
-        <v>0.5224358974358975</v>
+        <v>0.467032967032967</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>622</v>
       </c>
       <c r="B59">
-        <v>0.4882995319812792</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>623</v>
       </c>
       <c r="B60">
-        <v>0.5377697841726619</v>
+        <v>0.4902912621359223</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>624</v>
       </c>
       <c r="B61">
-        <v>0.6573033707865169</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>625</v>
       </c>
       <c r="B62">
-        <v>0.3679525222551929</v>
+        <v>0.3417493237150586</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>626</v>
       </c>
       <c r="B63">
-        <v>0.8333333333333334</v>
+        <v>0.8085106382978723</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>627</v>
       </c>
       <c r="B64">
-        <v>0.451063829787234</v>
+        <v>0.3987951807228916</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>628</v>
       </c>
       <c r="B65">
-        <v>0.5092592592592593</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>629</v>
       </c>
       <c r="B66">
-        <v>0.5017301038062284</v>
+        <v>0.4508670520231214</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>630</v>
       </c>
       <c r="B67">
-        <v>0.5991902834008097</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>631</v>
       </c>
       <c r="B68">
-        <v>0.4404205607476636</v>
+        <v>0.3903903903903904</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>632</v>
       </c>
       <c r="B69">
-        <v>0.5093333333333333</v>
+        <v>0.4655581947743468</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>633</v>
       </c>
       <c r="B70">
-        <v>0.4930795847750865</v>
+        <v>0.464968152866242</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>634</v>
       </c>
       <c r="B71">
-        <v>0.5398550724637681</v>
+        <v>0.4695121951219512</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>635</v>
       </c>
       <c r="B72">
-        <v>0.6972477064220184</v>
+        <v>0.6422764227642277</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>636</v>
       </c>
       <c r="B73">
-        <v>0.6575342465753424</v>
+        <v>0.6141078838174274</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>637</v>
       </c>
       <c r="B74">
-        <v>0.6538461538461539</v>
+        <v>0.5916666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>638</v>
       </c>
       <c r="B75">
-        <v>0.5868544600938967</v>
+        <v>0.5508474576271186</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>639</v>
       </c>
       <c r="B76">
-        <v>0.5112262521588946</v>
+        <v>0.4616541353383459</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>640</v>
       </c>
       <c r="B77">
-        <v>0.5591054313099042</v>
+        <v>0.5242165242165242</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>641</v>
       </c>
       <c r="B78">
-        <v>0.712</v>
+        <v>0.6643356643356644</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>642</v>
       </c>
       <c r="B79">
-        <v>0.4808988764044944</v>
+        <v>0.4462151394422311</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>643</v>
       </c>
       <c r="B80">
-        <v>0.4685408299866131</v>
+        <v>0.4328899637243047</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>644</v>
       </c>
       <c r="B81">
-        <v>0.6766917293233082</v>
+        <v>0.6357615894039735</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>645</v>
       </c>
       <c r="B82">
-        <v>0.5324675324675324</v>
+        <v>0.4918414918414918</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>646</v>
       </c>
       <c r="B83">
-        <v>0.6</v>
+        <v>0.5547945205479452</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>647</v>
       </c>
       <c r="B84">
-        <v>0.4515366430260047</v>
+        <v>0.4163179916317992</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>648</v>
       </c>
       <c r="B85">
-        <v>0.6472602739726028</v>
+        <v>0.6043613707165109</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>649</v>
       </c>
       <c r="B86">
-        <v>0.4798657718120805</v>
+        <v>0.433048433048433</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>650</v>
       </c>
       <c r="B87">
-        <v>0.3950381679389313</v>
+        <v>0.3616298811544992</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>651</v>
       </c>
       <c r="B88">
-        <v>0.3596538669551109</v>
+        <v>0.3283292978208233</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>652</v>
       </c>
       <c r="B89">
-        <v>0.4984520123839009</v>
+        <v>0.4672131147540984</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>653</v>
       </c>
       <c r="B90">
-        <v>0.8409090909090909</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>654</v>
       </c>
       <c r="B91">
-        <v>0.8723404255319149</v>
+        <v>0.8653846153846154</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>655</v>
       </c>
       <c r="B92">
-        <v>0.5136116152450091</v>
+        <v>0.4730831973898858</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>656</v>
       </c>
       <c r="B93">
-        <v>0.8085106382978723</v>
+        <v>0.8113207547169812</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>657</v>
       </c>
       <c r="B94">
-        <v>0.8604651162790697</v>
+        <v>0.803921568627451</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>658</v>
       </c>
       <c r="B95">
-        <v>0.9285714285714286</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>659</v>
       </c>
       <c r="B96">
-        <v>0.8695652173913043</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>660</v>
       </c>
       <c r="B97">
-        <v>0.8695652173913043</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>661</v>
       </c>
       <c r="B98">
-        <v>0.3935185185185185</v>
+        <v>0.3742071881606766</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>662</v>
       </c>
       <c r="B99">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>663</v>
       </c>
       <c r="B100">
-        <v>0.5905044510385756</v>
+        <v>0.5300261096605744</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>664</v>
       </c>
       <c r="B101">
-        <v>0.7826086956521739</v>
+        <v>0.7454545454545455</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>665</v>
       </c>
       <c r="B102">
-        <v>0.5600000000000001</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>666</v>
       </c>
       <c r="B103">
-        <v>0.8809523809523809</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>667</v>
       </c>
       <c r="B104">
-        <v>0.4836601307189543</v>
+        <v>0.4763313609467456</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>668</v>
       </c>
       <c r="B105">
-        <v>0.660377358490566</v>
+        <v>0.6349206349206349</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>670</v>
       </c>
       <c r="B107">
-        <v>0.84375</v>
+        <v>0.8142857142857143</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>671</v>
       </c>
       <c r="B108">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>672</v>
       </c>
       <c r="B109">
-        <v>0.8148148148148148</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>673</v>
       </c>
       <c r="B110">
-        <v>0.9166666666666666</v>
+        <v>0.8448275862068966</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>674</v>
       </c>
       <c r="B111">
-        <v>0.625</v>
+        <v>0.5543859649122806</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>675</v>
       </c>
       <c r="B112">
-        <v>0.6956521739130435</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>676</v>
       </c>
       <c r="B113">
-        <v>0.8181818181818182</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>677</v>
       </c>
       <c r="B114">
-        <v>0.6792452830188679</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>678</v>
       </c>
       <c r="B115">
-        <v>0.5610687022900763</v>
+        <v>0.5298245614035088</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>679</v>
       </c>
       <c r="B116">
-        <v>0.7419354838709677</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>680</v>
       </c>
       <c r="B117">
-        <v>0.875</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>681</v>
       </c>
       <c r="B118">
-        <v>0.851063829787234</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>682</v>
       </c>
       <c r="B119">
-        <v>0.7826086956521739</v>
+        <v>0.7959183673469388</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>683</v>
       </c>
       <c r="B120">
-        <v>0.7727272727272727</v>
+        <v>0.7551020408163265</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>684</v>
       </c>
       <c r="B121">
-        <v>0.7450980392156863</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>685</v>
       </c>
       <c r="B122">
-        <v>0.4854700854700855</v>
+        <v>0.4501557632398754</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>686</v>
       </c>
       <c r="B123">
-        <v>0.5529411764705883</v>
+        <v>0.5176151761517616</v>
       </c>
     </row>
   </sheetData>
@@ -3822,25 +3822,25 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.4705541936738655</v>
+        <v>0.4196872004989353</v>
       </c>
       <c r="D2">
-        <v>0.08070579596070346</v>
+        <v>0.07468393660058105</v>
       </c>
       <c r="E2">
-        <v>0.3242290748898679</v>
+        <v>0.2996870109546166</v>
       </c>
       <c r="F2">
-        <v>0.412488174077578</v>
+        <v>0.3670309653916211</v>
       </c>
       <c r="G2">
-        <v>0.4734177215189874</v>
+        <v>0.4182590233545648</v>
       </c>
       <c r="H2">
-        <v>0.4937759336099585</v>
+        <v>0.4499089253187614</v>
       </c>
       <c r="I2">
-        <v>0.6580310880829016</v>
+        <v>0.5895196506550219</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3851,22 +3851,22 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.5499717291832031</v>
+        <v>0.5079195067122538</v>
       </c>
       <c r="D3">
-        <v>0.1373305746416878</v>
+        <v>0.1426564217004121</v>
       </c>
       <c r="E3">
-        <v>0.3333333333333333</v>
+        <v>0.2951200619674671</v>
       </c>
       <c r="F3">
-        <v>0.4678928600155509</v>
+        <v>0.4230596886310105</v>
       </c>
       <c r="G3">
-        <v>0.5417515274949084</v>
+        <v>0.4843373493975904</v>
       </c>
       <c r="H3">
-        <v>0.5893182185907289</v>
+        <v>0.5458402150328703</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3880,25 +3880,25 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.5100205479089146</v>
+        <v>0.4659585173853435</v>
       </c>
       <c r="D4">
-        <v>0.0947517863825133</v>
+        <v>0.08734928254637218</v>
       </c>
       <c r="E4">
-        <v>0.3748079877112135</v>
+        <v>0.3452544704264099</v>
       </c>
       <c r="F4">
-        <v>0.4331448148008969</v>
+        <v>0.394700468816347</v>
       </c>
       <c r="G4">
-        <v>0.5024348205684008</v>
+        <v>0.4640084339909449</v>
       </c>
       <c r="H4">
-        <v>0.5567058189009408</v>
+        <v>0.5134959457077384</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3909,25 +3909,25 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>0.4912337988625821</v>
+        <v>0.4487967013207705</v>
       </c>
       <c r="D5">
-        <v>0.08489610229780538</v>
+        <v>0.08498368483226645</v>
       </c>
       <c r="E5">
-        <v>0.2805983680870354</v>
+        <v>0.2432018383761011</v>
       </c>
       <c r="F5">
-        <v>0.4406641881028939</v>
+        <v>0.4037872924289333</v>
       </c>
       <c r="G5">
-        <v>0.4695281453531972</v>
+        <v>0.4306263665594855</v>
       </c>
       <c r="H5">
-        <v>0.5322710343660064</v>
+        <v>0.5005707762557078</v>
       </c>
       <c r="I5">
-        <v>0.6888888888888889</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3938,22 +3938,22 @@
         <v>61</v>
       </c>
       <c r="C6">
-        <v>0.559130542122559</v>
+        <v>0.5178436314846886</v>
       </c>
       <c r="D6">
-        <v>0.1893832788494695</v>
+        <v>0.1897325048661481</v>
       </c>
       <c r="E6">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
       <c r="F6">
-        <v>0.4312590448625181</v>
+        <v>0.396640826873385</v>
       </c>
       <c r="G6">
-        <v>0.5026041666666666</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="H6">
-        <v>0.6291390728476821</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3967,25 +3967,25 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.5868498946930942</v>
+        <v>0.5424379898277744</v>
       </c>
       <c r="D7">
-        <v>0.1855675027932124</v>
+        <v>0.189819950168621</v>
       </c>
       <c r="E7">
-        <v>0.3492762743864066</v>
+        <v>0.2825443786982249</v>
       </c>
       <c r="F7">
-        <v>0.4524791709002235</v>
+        <v>0.4112179487179487</v>
       </c>
       <c r="G7">
-        <v>0.5201352145796591</v>
+        <v>0.4769888475836431</v>
       </c>
       <c r="H7">
-        <v>0.6940751445086705</v>
+        <v>0.6543956043956044</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3996,22 +3996,22 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>0.582952490790478</v>
+        <v>0.543816289097365</v>
       </c>
       <c r="D8">
-        <v>0.2079545976143732</v>
+        <v>0.2159481430881115</v>
       </c>
       <c r="E8">
-        <v>0.2503442577802258</v>
+        <v>0.220218319886094</v>
       </c>
       <c r="F8">
-        <v>0.456234144186011</v>
+        <v>0.4098775470095224</v>
       </c>
       <c r="G8">
-        <v>0.5154061624649859</v>
+        <v>0.4698873582031872</v>
       </c>
       <c r="H8">
-        <v>0.6056091030789826</v>
+        <v>0.5675473719828559</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4025,22 +4025,22 @@
         <v>91</v>
       </c>
       <c r="C9">
-        <v>0.626685406159677</v>
+        <v>0.588015805285631</v>
       </c>
       <c r="D9">
-        <v>0.2012988987352928</v>
+        <v>0.2102114240458738</v>
       </c>
       <c r="E9">
-        <v>0.2612359550561798</v>
+        <v>0.2385786802030457</v>
       </c>
       <c r="F9">
-        <v>0.478602998973425</v>
+        <v>0.4249378518680997</v>
       </c>
       <c r="G9">
-        <v>0.5706806282722513</v>
+        <v>0.5251141552511416</v>
       </c>
       <c r="H9">
-        <v>0.8032258064516129</v>
+        <v>0.792004048582996</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4054,22 +4054,22 @@
         <v>223</v>
       </c>
       <c r="C10">
-        <v>0.6430737471955467</v>
+        <v>0.6037164923721995</v>
       </c>
       <c r="D10">
-        <v>0.192063531058259</v>
+        <v>0.1998900274096155</v>
       </c>
       <c r="E10">
-        <v>0.2471145309263096</v>
+        <v>0.2226613965744401</v>
       </c>
       <c r="F10">
-        <v>0.5007094846900673</v>
+        <v>0.4604036740780911</v>
       </c>
       <c r="G10">
-        <v>0.5797665369649806</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H10">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4083,22 +4083,22 @@
         <v>122</v>
       </c>
       <c r="C11">
-        <v>0.5993033980284623</v>
+        <v>0.5595719061432746</v>
       </c>
       <c r="D11">
-        <v>0.160943410487072</v>
+        <v>0.1646534429092262</v>
       </c>
       <c r="E11">
-        <v>0.3136762860727729</v>
+        <v>0.2869222096956032</v>
       </c>
       <c r="F11">
-        <v>0.4838052699589864</v>
+        <v>0.4418777360850532</v>
       </c>
       <c r="G11">
-        <v>0.5505569669728356</v>
+        <v>0.5079022271047637</v>
       </c>
       <c r="H11">
-        <v>0.7083119266055046</v>
+        <v>0.6624529316837009</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.4226110363391655</v>
+        <v>0.3819691577698695</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.6270270270270271</v>
+        <v>0.5942028985507246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.4701986754966888</v>
+        <v>0.4271844660194175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.6404494382022472</v>
+        <v>0.568075117370892</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.4749620637329287</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>0.5721925133689839</v>
+        <v>0.5321100917431193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.548469387755102</v>
+        <v>0.5034168564920274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>0.5247252747252747</v>
+        <v>0.4843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0.5930851063829787</v>
+        <v>0.5437352245862884</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>0.4018499486125385</v>
+        <v>0.372310570626754</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>0.5742574257425742</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>0.5855513307984791</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>0.7540983606557377</v>
+        <v>0.7132352941176471</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>0.3951406649616369</v>
+        <v>0.3713620488940629</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>0.5677083333333334</v>
+        <v>0.4957264957264957</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>0.465587044534413</v>
+        <v>0.4189349112426036</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>0.4538878842676311</v>
+        <v>0.4169381107491857</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>0.52125</v>
+        <v>0.4572649572649573</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>0.5204991087344029</v>
+        <v>0.4675925925925926</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>0.5417515274949084</v>
+        <v>0.4758620689655172</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.2951200619674671</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>0.6607142857142857</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B2">
-        <v>0.5609756097560976</v>
+        <v>0.5136612021857924</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>0.3748079877112135</v>
+        <v>0.3452544704264099</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0.515748031496063</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0.6257309941520468</v>
+        <v>0.5643564356435643</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0.4136043784206411</v>
+        <v>0.3742116327960757</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0.5967741935483871</v>
+        <v>0.5497630331753555</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0.4168674698795181</v>
+        <v>0.3744725738396624</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0.4127358490566038</v>
+        <v>0.3830472103004292</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.5454545454545454</v>
+        <v>0.5204819277108433</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0.5661016949152542</v>
+        <v>0.5014245014245015</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>0.4969325153374233</v>
+        <v>0.4692737430167598</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>53</v>
       </c>
       <c r="B13">
-        <v>0.615916955017301</v>
+        <v>0.5859872611464968</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>54</v>
       </c>
       <c r="B14">
-        <v>0.4292084726867336</v>
+        <v>0.3892215568862276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>55</v>
       </c>
       <c r="B15">
-        <v>0.4357723577235773</v>
+        <v>0.3965267727930535</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>56</v>
       </c>
       <c r="B16">
-        <v>0.3861607142857143</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>57</v>
       </c>
       <c r="B17">
-        <v>0.50390625</v>
+        <v>0.4683098591549296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>58</v>
       </c>
       <c r="B18">
-        <v>0.4034536891679749</v>
+        <v>0.356475300400534</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>59</v>
       </c>
       <c r="B19">
-        <v>0.4046563192904656</v>
+        <v>0.353874883286648</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>60</v>
       </c>
       <c r="B20">
-        <v>0.5552825552825553</v>
+        <v>0.4989517819706499</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>61</v>
       </c>
       <c r="B21">
-        <v>0.5376044568245125</v>
+        <v>0.5012594458438288</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>62</v>
       </c>
       <c r="B22">
-        <v>0.4201077199281867</v>
+        <v>0.3863275039745628</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>63</v>
       </c>
       <c r="B23">
-        <v>0.4775641025641026</v>
+        <v>0.4391304347826087</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>64</v>
       </c>
       <c r="B24">
-        <v>0.3843478260869565</v>
+        <v>0.3511214230471771</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>65</v>
       </c>
       <c r="B25">
-        <v>0.4811046511627907</v>
+        <v>0.4351732991014121</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>66</v>
       </c>
       <c r="B26">
-        <v>0.4806094182825485</v>
+        <v>0.4334140435835351</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>67</v>
       </c>
       <c r="B27">
-        <v>0.84</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>68</v>
       </c>
       <c r="B28">
-        <v>0.5342105263157895</v>
+        <v>0.4813953488372093</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>69</v>
       </c>
       <c r="B29">
-        <v>0.4097633136094674</v>
+        <v>0.3695090439276486</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>70</v>
       </c>
       <c r="B30">
-        <v>0.5749063670411985</v>
+        <v>0.4992101105845181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>71</v>
       </c>
       <c r="B31">
-        <v>0.4686998394863564</v>
+        <v>0.4112792297111417</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>72</v>
       </c>
       <c r="B32">
-        <v>0.4787581699346405</v>
+        <v>0.4421364985163205</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>73</v>
       </c>
       <c r="B33">
-        <v>0.4726100966702471</v>
+        <v>0.4299424184261036</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="B34">
-        <v>0.5213849287169042</v>
+        <v>0.474910394265233</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>75</v>
       </c>
       <c r="B35">
-        <v>0.6108597285067874</v>
+        <v>0.5373134328358209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>76</v>
       </c>
       <c r="B36">
-        <v>0.5470588235294118</v>
+        <v>0.5157894736842106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>77</v>
       </c>
       <c r="B37">
-        <v>0.4479166666666667</v>
+        <v>0.4192307692307692</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="B38">
-        <v>0.5009633911368016</v>
+        <v>0.4433497536945813</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>79</v>
       </c>
       <c r="B39">
-        <v>0.5136116152450091</v>
+        <v>0.4668769716088328</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="B40">
-        <v>0.6666666666666666</v>
+        <v>0.6305732484076433</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>81</v>
       </c>
       <c r="B41">
-        <v>0.4344569288389513</v>
+        <v>0.4040747028862479</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>82</v>
       </c>
       <c r="B42">
-        <v>0.6511627906976745</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>83</v>
       </c>
       <c r="B43">
-        <v>0.5486725663716814</v>
+        <v>0.5134408602150538</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>84</v>
       </c>
       <c r="B44">
-        <v>0.6729559748427673</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>85</v>
       </c>
       <c r="B45">
-        <v>0.5048169556840078</v>
+        <v>0.461139896373057</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4779,7 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>0.62109375</v>
+        <v>0.5618729096989966</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4787,7 +4787,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>0.4609929078014184</v>
+        <v>0.4276527331189711</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4795,7 +4795,7 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>0.4569190600522193</v>
+        <v>0.4205607476635514</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4803,7 +4803,7 @@
         <v>89</v>
       </c>
       <c r="B5">
-        <v>0.44125</v>
+        <v>0.389428263214671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4811,7 +4811,7 @@
         <v>90</v>
       </c>
       <c r="B6">
-        <v>0.43184421534937</v>
+        <v>0.4044117647058824</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4819,7 +4819,7 @@
         <v>91</v>
       </c>
       <c r="B7">
-        <v>0.5381750465549349</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4827,7 +4827,7 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <v>0.4924406047516199</v>
+        <v>0.4510556621880998</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4835,7 +4835,7 @@
         <v>93</v>
       </c>
       <c r="B9">
-        <v>0.5871313672922251</v>
+        <v>0.539568345323741</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4843,7 +4843,7 @@
         <v>94</v>
       </c>
       <c r="B10">
-        <v>0.6170212765957447</v>
+        <v>0.6017699115044248</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4851,7 +4851,7 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>0.3813314037626628</v>
+        <v>0.3126069594980034</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4859,7 +4859,7 @@
         <v>96</v>
       </c>
       <c r="B12">
-        <v>0.5303030303030303</v>
+        <v>0.5041322314049587</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4867,7 +4867,7 @@
         <v>97</v>
       </c>
       <c r="B13">
-        <v>0.6069868995633187</v>
+        <v>0.5632183908045977</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4875,7 +4875,7 @@
         <v>98</v>
       </c>
       <c r="B14">
-        <v>0.5121293800539084</v>
+        <v>0.4578587699316629</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4883,7 +4883,7 @@
         <v>99</v>
       </c>
       <c r="B15">
-        <v>0.4483471074380165</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4891,7 +4891,7 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>0.5226130653266332</v>
+        <v>0.502283105022831</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4899,7 +4899,7 @@
         <v>101</v>
       </c>
       <c r="B17">
-        <v>0.2805983680870354</v>
+        <v>0.2432018383761011</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4907,7 +4907,7 @@
         <v>102</v>
       </c>
       <c r="B18">
-        <v>0.4265486725663717</v>
+        <v>0.3882352941176471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4915,7 +4915,7 @@
         <v>103</v>
       </c>
       <c r="B19">
-        <v>0.5215189873417722</v>
+        <v>0.4851258581235698</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4923,7 +4923,7 @@
         <v>104</v>
       </c>
       <c r="B20">
-        <v>0.4389067524115756</v>
+        <v>0.3794940079893475</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4931,7 +4931,7 @@
         <v>105</v>
       </c>
       <c r="B21">
-        <v>0.6888888888888889</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4939,7 +4939,7 @@
         <v>106</v>
       </c>
       <c r="B22">
-        <v>0.4639016897081413</v>
+        <v>0.4219178082191781</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4947,7 +4947,7 @@
         <v>107</v>
       </c>
       <c r="B23">
-        <v>0.3809523809523809</v>
+        <v>0.3558504221954162</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4955,7 +4955,7 @@
         <v>108</v>
       </c>
       <c r="B24">
-        <v>0.4678492239467849</v>
+        <v>0.4130841121495327</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4963,7 +4963,7 @@
         <v>109</v>
       </c>
       <c r="B25">
-        <v>0.5205479452054794</v>
+        <v>0.4791154791154791</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4971,7 +4971,7 @@
         <v>110</v>
       </c>
       <c r="B26">
-        <v>0.4695222405271829</v>
+        <v>0.4095371669004207</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4979,7 +4979,7 @@
         <v>111</v>
       </c>
       <c r="B27">
-        <v>0.4695340501792115</v>
+        <v>0.4336</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4987,7 +4987,7 @@
         <v>112</v>
       </c>
       <c r="B28">
-        <v>0.4357615894039735</v>
+        <v>0.4019138755980861</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4995,7 +4995,7 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>0.5414364640883977</v>
+        <v>0.4790697674418605</v>
       </c>
     </row>
   </sheetData>
@@ -5054,7 +5054,7 @@
         <v>114</v>
       </c>
       <c r="B2">
-        <v>0.5849056603773585</v>
+        <v>0.5171102661596958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>115</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>116</v>
       </c>
       <c r="B4">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>117</v>
       </c>
       <c r="B5">
-        <v>0.2967542503863987</v>
+        <v>0.2681692732290709</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>118</v>
       </c>
       <c r="B6">
-        <v>0.4555984555984556</v>
+        <v>0.4179620034542315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>119</v>
       </c>
       <c r="B7">
-        <v>0.429718875502008</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>120</v>
       </c>
       <c r="B8">
-        <v>0.3916083916083916</v>
+        <v>0.3520286396181384</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>121</v>
       </c>
       <c r="B9">
-        <v>0.9285714285714286</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>122</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6641221374045801</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>123</v>
       </c>
       <c r="B11">
-        <v>0.4389359129383313</v>
+        <v>0.3748753738783649</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>124</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5533596837944664</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>125</v>
       </c>
       <c r="B13">
-        <v>0.7279411764705882</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>126</v>
       </c>
       <c r="B14">
-        <v>0.3677555321390938</v>
+        <v>0.3400383141762452</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>127</v>
       </c>
       <c r="B15">
-        <v>0.3865030674846626</v>
+        <v>0.3452593917710197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>128</v>
       </c>
       <c r="B16">
-        <v>0.6291390728476821</v>
+        <v>0.5718390804597702</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>129</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>130</v>
       </c>
       <c r="B18">
-        <v>0.4312590448625181</v>
+        <v>0.396640826873385</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>131</v>
       </c>
       <c r="B19">
-        <v>0.5083969465648855</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>132</v>
       </c>
       <c r="B20">
-        <v>0.3796889295516926</v>
+        <v>0.3528925619834711</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>133</v>
       </c>
       <c r="B21">
-        <v>0.4767857142857143</v>
+        <v>0.446078431372549</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>134</v>
       </c>
       <c r="B22">
-        <v>0.8529411764705882</v>
+        <v>0.8205128205128205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>135</v>
       </c>
       <c r="B23">
-        <v>0.5026041666666666</v>
+        <v>0.4691943127962085</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>136</v>
       </c>
       <c r="B24">
-        <v>0.5614035087719298</v>
+        <v>0.5109649122807017</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>137</v>
       </c>
       <c r="B25">
-        <v>0.6518518518518519</v>
+        <v>0.5508982035928144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>138</v>
       </c>
       <c r="B26">
-        <v>0.8571428571428571</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>139</v>
       </c>
       <c r="B27">
-        <v>0.3917396745932415</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>140</v>
       </c>
       <c r="B28">
-        <v>0.4892703862660944</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>141</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.358053302433372</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>142</v>
       </c>
       <c r="B30">
-        <v>0.3994778067885117</v>
+        <v>0.3619489559164733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>143</v>
       </c>
       <c r="B31">
-        <v>0.4445828144458281</v>
+        <v>0.4011049723756906</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>144</v>
       </c>
       <c r="B32">
-        <v>0.7651515151515151</v>
+        <v>0.7074829931972789</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>145</v>
       </c>
       <c r="B33">
-        <v>0.5104602510460251</v>
+        <v>0.4702602230483272</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>147</v>
       </c>
       <c r="B35">
-        <v>0.5863874345549738</v>
+        <v>0.5388127853881278</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>148</v>
       </c>
       <c r="B36">
-        <v>0.6473684210526316</v>
+        <v>0.5814977973568282</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>149</v>
       </c>
       <c r="B37">
-        <v>0.545</v>
+        <v>0.479108635097493</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>150</v>
       </c>
       <c r="B38">
-        <v>0.4884287454323995</v>
+        <v>0.4371002132196162</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>151</v>
       </c>
       <c r="B39">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>152</v>
       </c>
       <c r="B40">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>153</v>
       </c>
       <c r="B41">
-        <v>0.3347302252488213</v>
+        <v>0.3000931966449208</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>154</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>155</v>
       </c>
       <c r="B43">
-        <v>0.3833865814696485</v>
+        <v>0.354066985645933</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>156</v>
       </c>
       <c r="B44">
-        <v>0.6728395061728395</v>
+        <v>0.6358695652173914</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>157</v>
       </c>
       <c r="B45">
-        <v>0.4943609022556391</v>
+        <v>0.4569983136593592</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>158</v>
       </c>
       <c r="B46">
-        <v>0.456896551724138</v>
+        <v>0.4185692541856925</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>159</v>
       </c>
       <c r="B47">
-        <v>0.3955014058106842</v>
+        <v>0.3392996108949417</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>160</v>
       </c>
       <c r="B48">
-        <v>0.5085910652920962</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>161</v>
       </c>
       <c r="B49">
-        <v>0.9047619047619048</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>162</v>
       </c>
       <c r="B50">
-        <v>0.492063492063492</v>
+        <v>0.449645390070922</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>163</v>
       </c>
       <c r="B51">
-        <v>0.4850894632206759</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>164</v>
       </c>
       <c r="B52">
-        <v>0.4642857142857143</v>
+        <v>0.4376321353065539</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>165</v>
       </c>
       <c r="B53">
-        <v>0.4929078014184397</v>
+        <v>0.4417177914110429</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>166</v>
       </c>
       <c r="B54">
-        <v>0.543010752688172</v>
+        <v>0.5048076923076923</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>167</v>
       </c>
       <c r="B55">
-        <v>0.6180257510729614</v>
+        <v>0.5571428571428572</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>168</v>
       </c>
       <c r="B56">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>169</v>
       </c>
       <c r="B57">
-        <v>0.5362694300518135</v>
+        <v>0.4726256983240223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>170</v>
       </c>
       <c r="B58">
-        <v>0.4987775061124695</v>
+        <v>0.4613686534216336</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>171</v>
       </c>
       <c r="B59">
-        <v>0.538961038961039</v>
+        <v>0.5072886297376094</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>172</v>
       </c>
       <c r="B60">
-        <v>0.5465686274509803</v>
+        <v>0.5110132158590308</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>173</v>
       </c>
       <c r="B61">
-        <v>0.4662162162162162</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>174</v>
       </c>
       <c r="B62">
-        <v>0.5904761904761905</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
   </sheetData>
@@ -5626,7 +5626,7 @@
         <v>175</v>
       </c>
       <c r="B2">
-        <v>0.5608856088560885</v>
+        <v>0.5064102564102564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>176</v>
       </c>
       <c r="B3">
-        <v>0.4437229437229437</v>
+        <v>0.3646551724137931</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>177</v>
       </c>
       <c r="B4">
-        <v>0.4987951807228916</v>
+        <v>0.4490644490644491</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>178</v>
       </c>
       <c r="B5">
-        <v>0.5938697318007663</v>
+        <v>0.5409836065573771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>179</v>
       </c>
       <c r="B6">
-        <v>0.9473684210526315</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>180</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>181</v>
       </c>
       <c r="B8">
-        <v>0.4573170731707317</v>
+        <v>0.4183535762483131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>182</v>
       </c>
       <c r="B9">
-        <v>0.9565217391304348</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>183</v>
       </c>
       <c r="B10">
-        <v>0.4811529933481153</v>
+        <v>0.4393063583815029</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>184</v>
       </c>
       <c r="B11">
-        <v>0.7089552238805971</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>185</v>
       </c>
       <c r="B12">
-        <v>0.4509246088193457</v>
+        <v>0.4141025641025641</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>186</v>
       </c>
       <c r="B13">
-        <v>0.5097087378640777</v>
+        <v>0.502283105022831</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>187</v>
       </c>
       <c r="B14">
-        <v>0.5238095238095238</v>
+        <v>0.4582043343653251</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>188</v>
       </c>
       <c r="B15">
-        <v>0.4605263157894737</v>
+        <v>0.4344827586206896</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>189</v>
       </c>
       <c r="B16">
-        <v>0.5916666666666667</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>190</v>
       </c>
       <c r="B17">
-        <v>0.4338624338624338</v>
+        <v>0.3755615453728661</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>191</v>
       </c>
       <c r="B18">
-        <v>0.4571428571428571</v>
+        <v>0.4030837004405287</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>192</v>
       </c>
       <c r="B19">
-        <v>0.8051948051948052</v>
+        <v>0.7216494845360825</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>193</v>
       </c>
       <c r="B20">
-        <v>0.95</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>194</v>
       </c>
       <c r="B21">
-        <v>0.3492762743864066</v>
+        <v>0.2825443786982249</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>195</v>
       </c>
       <c r="B22">
-        <v>0.6538461538461539</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>196</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>197</v>
       </c>
       <c r="B24">
-        <v>0.4493975903614458</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>198</v>
       </c>
       <c r="B25">
-        <v>0.4695863746958637</v>
+        <v>0.4274891774891775</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>199</v>
       </c>
       <c r="B26">
-        <v>0.5164609053497943</v>
+        <v>0.4739776951672863</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>200</v>
       </c>
       <c r="B27">
-        <v>0.6763005780346821</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>201</v>
       </c>
       <c r="B28">
-        <v>0.7</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>202</v>
       </c>
       <c r="B29">
-        <v>0.5325443786982249</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5850,7 +5850,7 @@
         <v>203</v>
       </c>
       <c r="B30">
-        <v>0.4347826086956522</v>
+        <v>0.379949452401011</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5858,7 +5858,7 @@
         <v>204</v>
       </c>
       <c r="B31">
-        <v>0.383879781420765</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>205</v>
       </c>
       <c r="B32">
-        <v>0.8548387096774194</v>
+        <v>0.8428571428571429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>206</v>
       </c>
       <c r="B33">
-        <v>0.5374149659863946</v>
+        <v>0.5030487804878049</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>207</v>
       </c>
       <c r="B34">
-        <v>0.3594202898550725</v>
+        <v>0.3367088607594937</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>208</v>
       </c>
       <c r="B35">
-        <v>0.4437229437229437</v>
+        <v>0.3646551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -5955,7 +5955,7 @@
         <v>209</v>
       </c>
       <c r="B2">
-        <v>0.485632183908046</v>
+        <v>0.4467005076142132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5963,7 +5963,7 @@
         <v>210</v>
       </c>
       <c r="B3">
-        <v>0.5705128205128205</v>
+        <v>0.5397727272727273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5971,7 +5971,7 @@
         <v>211</v>
       </c>
       <c r="B4">
-        <v>0.5143288084464555</v>
+        <v>0.4704301075268817</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5979,7 +5979,7 @@
         <v>212</v>
       </c>
       <c r="B5">
-        <v>0.5164835164835165</v>
+        <v>0.4850498338870432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5987,7 +5987,7 @@
         <v>213</v>
       </c>
       <c r="B6">
-        <v>0.4511545293072824</v>
+        <v>0.4170692431561997</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5995,7 +5995,7 @@
         <v>214</v>
       </c>
       <c r="B7">
-        <v>0.3171368861024034</v>
+        <v>0.2853817504655494</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6003,7 +6003,7 @@
         <v>215</v>
       </c>
       <c r="B8">
-        <v>0.4748490945674044</v>
+        <v>0.4438305709023941</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6011,7 +6011,7 @@
         <v>216</v>
       </c>
       <c r="B9">
-        <v>0.5779467680608364</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6019,7 +6019,7 @@
         <v>217</v>
       </c>
       <c r="B10">
-        <v>0.4770642201834863</v>
+        <v>0.4365620736698499</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6027,7 +6027,7 @@
         <v>218</v>
       </c>
       <c r="B11">
-        <v>0.5791245791245792</v>
+        <v>0.5170454545454546</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6035,7 +6035,7 @@
         <v>219</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6043,7 +6043,7 @@
         <v>220</v>
       </c>
       <c r="B13">
-        <v>0.4581939799331103</v>
+        <v>0.3932432432432432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6059,7 +6059,7 @@
         <v>222</v>
       </c>
       <c r="B15">
-        <v>0.5846153846153846</v>
+        <v>0.5313531353135313</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6067,7 +6067,7 @@
         <v>223</v>
       </c>
       <c r="B16">
-        <v>0.9375</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6075,7 +6075,7 @@
         <v>224</v>
       </c>
       <c r="B17">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6083,7 +6083,7 @@
         <v>225</v>
       </c>
       <c r="B18">
-        <v>0.9333333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6091,7 +6091,7 @@
         <v>226</v>
       </c>
       <c r="B19">
-        <v>0.8636363636363636</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6099,7 +6099,7 @@
         <v>227</v>
       </c>
       <c r="B20">
-        <v>0.353615520282187</v>
+        <v>0.3232791956689868</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6107,7 +6107,7 @@
         <v>228</v>
       </c>
       <c r="B21">
-        <v>0.92</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6115,7 +6115,7 @@
         <v>229</v>
       </c>
       <c r="B22">
-        <v>0.5911111111111111</v>
+        <v>0.5725806451612904</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6123,7 +6123,7 @@
         <v>230</v>
       </c>
       <c r="B23">
-        <v>0.5272277227722773</v>
+        <v>0.4693446088794926</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6131,7 +6131,7 @@
         <v>231</v>
       </c>
       <c r="B24">
-        <v>0.4555808656036446</v>
+        <v>0.4074803149606299</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6139,7 +6139,7 @@
         <v>232</v>
       </c>
       <c r="B25">
-        <v>0.3599386032233308</v>
+        <v>0.321954484605087</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6147,7 +6147,7 @@
         <v>233</v>
       </c>
       <c r="B26">
-        <v>0.4289127837514934</v>
+        <v>0.391578947368421</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6155,7 +6155,7 @@
         <v>234</v>
       </c>
       <c r="B27">
-        <v>0.5579399141630901</v>
+        <v>0.5145985401459854</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6163,7 +6163,7 @@
         <v>235</v>
       </c>
       <c r="B28">
-        <v>0.4824561403508772</v>
+        <v>0.4421875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6171,7 +6171,7 @@
         <v>236</v>
       </c>
       <c r="B29">
-        <v>0.421602787456446</v>
+        <v>0.3605633802816902</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6179,7 +6179,7 @@
         <v>237</v>
       </c>
       <c r="B30">
-        <v>0.4732006125574272</v>
+        <v>0.4406077348066298</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6187,7 +6187,7 @@
         <v>238</v>
       </c>
       <c r="B31">
-        <v>0.4991974317817015</v>
+        <v>0.4525139664804469</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6195,7 +6195,7 @@
         <v>239</v>
       </c>
       <c r="B32">
-        <v>0.4273412271259419</v>
+        <v>0.3757961783439491</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6203,7 +6203,7 @@
         <v>240</v>
       </c>
       <c r="B33">
-        <v>0.6104417670682731</v>
+        <v>0.5524475524475524</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6211,7 +6211,7 @@
         <v>241</v>
       </c>
       <c r="B34">
-        <v>0.5481283422459893</v>
+        <v>0.4976851851851852</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6219,7 +6219,7 @@
         <v>242</v>
       </c>
       <c r="B35">
-        <v>0.4005305039787798</v>
+        <v>0.3406593406593407</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6227,7 +6227,7 @@
         <v>243</v>
       </c>
       <c r="B36">
-        <v>0.462992125984252</v>
+        <v>0.4265927977839335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6235,7 +6235,7 @@
         <v>244</v>
       </c>
       <c r="B37">
-        <v>0.2503442577802258</v>
+        <v>0.220218319886094</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6243,7 +6243,7 @@
         <v>245</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>0.440251572327044</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6259,7 +6259,7 @@
         <v>247</v>
       </c>
       <c r="B40">
-        <v>0.875</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6267,7 +6267,7 @@
         <v>248</v>
       </c>
       <c r="B41">
-        <v>0.3737486095661847</v>
+        <v>0.3358999037536092</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6275,7 +6275,7 @@
         <v>249</v>
       </c>
       <c r="B42">
-        <v>0.53</v>
+        <v>0.4817987152034261</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6283,7 +6283,7 @@
         <v>250</v>
       </c>
       <c r="B43">
-        <v>0.8181818181818182</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -6356,7 +6356,7 @@
         <v>251</v>
       </c>
       <c r="B2">
-        <v>0.3660531697341513</v>
+        <v>0.3315696649029982</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6364,7 +6364,7 @@
         <v>252</v>
       </c>
       <c r="B3">
-        <v>0.6861702127659575</v>
+        <v>0.631336405529954</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6372,7 +6372,7 @@
         <v>253</v>
       </c>
       <c r="B4">
-        <v>0.6098901098901099</v>
+        <v>0.5609756097560976</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6380,7 +6380,7 @@
         <v>254</v>
       </c>
       <c r="B5">
-        <v>0.8142857142857143</v>
+        <v>0.7763157894736842</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6388,7 +6388,7 @@
         <v>255</v>
       </c>
       <c r="B6">
-        <v>0.4805825242718447</v>
+        <v>0.4380403458213257</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6396,7 +6396,7 @@
         <v>256</v>
       </c>
       <c r="B7">
-        <v>0.3932584269662922</v>
+        <v>0.3640040444893832</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6404,7 +6404,7 @@
         <v>257</v>
       </c>
       <c r="B8">
-        <v>0.6022727272727273</v>
+        <v>0.5786802030456852</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6412,7 +6412,7 @@
         <v>258</v>
       </c>
       <c r="B9">
-        <v>0.66</v>
+        <v>0.6136363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6420,7 +6420,7 @@
         <v>259</v>
       </c>
       <c r="B10">
-        <v>0.6854838709677419</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6428,7 +6428,7 @@
         <v>260</v>
       </c>
       <c r="B11">
-        <v>0.6504065040650406</v>
+        <v>0.5915492957746479</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6436,7 +6436,7 @@
         <v>261</v>
       </c>
       <c r="B12">
-        <v>0.6287128712871287</v>
+        <v>0.5646551724137931</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6444,7 +6444,7 @@
         <v>262</v>
       </c>
       <c r="B13">
-        <v>0.5212765957446809</v>
+        <v>0.4741784037558686</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6452,7 +6452,7 @@
         <v>263</v>
       </c>
       <c r="B14">
-        <v>0.3480392156862745</v>
+        <v>0.2971788551081895</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6460,7 +6460,7 @@
         <v>264</v>
       </c>
       <c r="B15">
-        <v>0.4100719424460432</v>
+        <v>0.3758911211924822</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6468,7 +6468,7 @@
         <v>265</v>
       </c>
       <c r="B16">
-        <v>0.5106951871657754</v>
+        <v>0.4602803738317757</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6476,7 +6476,7 @@
         <v>266</v>
       </c>
       <c r="B17">
-        <v>0.639751552795031</v>
+        <v>0.5955056179775281</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6484,7 +6484,7 @@
         <v>267</v>
       </c>
       <c r="B18">
-        <v>0.52046783625731</v>
+        <v>0.4367816091954023</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6492,7 +6492,7 @@
         <v>268</v>
       </c>
       <c r="B19">
-        <v>0.5938697318007663</v>
+        <v>0.5328947368421053</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6500,7 +6500,7 @@
         <v>269</v>
       </c>
       <c r="B20">
-        <v>0.4798099762470309</v>
+        <v>0.4305835010060362</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6508,7 +6508,7 @@
         <v>270</v>
       </c>
       <c r="B21">
-        <v>0.5546875</v>
+        <v>0.4983277591973244</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6516,7 +6516,7 @@
         <v>271</v>
       </c>
       <c r="B22">
-        <v>0.5825688073394495</v>
+        <v>0.545816733067729</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6524,7 +6524,7 @@
         <v>272</v>
       </c>
       <c r="B23">
-        <v>0.4425287356321839</v>
+        <v>0.3980099502487562</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6532,7 +6532,7 @@
         <v>273</v>
       </c>
       <c r="B24">
-        <v>0.523517382413088</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6540,7 +6540,7 @@
         <v>274</v>
       </c>
       <c r="B25">
-        <v>0.9545454545454546</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6548,7 +6548,7 @@
         <v>275</v>
       </c>
       <c r="B26">
-        <v>0.425569176882662</v>
+        <v>0.3884555382215288</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6556,7 +6556,7 @@
         <v>276</v>
       </c>
       <c r="B27">
-        <v>0.9333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6564,7 +6564,7 @@
         <v>277</v>
       </c>
       <c r="B28">
-        <v>0.9285714285714286</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6572,7 +6572,7 @@
         <v>278</v>
       </c>
       <c r="B29">
-        <v>0.461038961038961</v>
+        <v>0.3952225841476656</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6580,7 +6580,7 @@
         <v>279</v>
       </c>
       <c r="B30">
-        <v>0.4484256243213898</v>
+        <v>0.4059787849566056</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6588,7 +6588,7 @@
         <v>280</v>
       </c>
       <c r="B31">
-        <v>0.4313725490196079</v>
+        <v>0.3748427672955975</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6604,7 +6604,7 @@
         <v>282</v>
       </c>
       <c r="B33">
-        <v>0.9629629629629629</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6612,7 +6612,7 @@
         <v>283</v>
       </c>
       <c r="B34">
-        <v>0.8846153846153846</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6620,7 +6620,7 @@
         <v>284</v>
       </c>
       <c r="B35">
-        <v>0.4535315985130112</v>
+        <v>0.4261168384879725</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6628,7 +6628,7 @@
         <v>285</v>
       </c>
       <c r="B36">
-        <v>0.5349887133182845</v>
+        <v>0.4939516129032258</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6636,7 +6636,7 @@
         <v>286</v>
       </c>
       <c r="B37">
-        <v>0.4274809160305343</v>
+        <v>0.3944827586206897</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6644,7 +6644,7 @@
         <v>287</v>
       </c>
       <c r="B38">
-        <v>0.5147058823529411</v>
+        <v>0.4608150470219436</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6652,7 +6652,7 @@
         <v>288</v>
       </c>
       <c r="B39">
-        <v>0.4773960216998192</v>
+        <v>0.4395424836601307</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6660,7 +6660,7 @@
         <v>289</v>
       </c>
       <c r="B40">
-        <v>0.5584415584415584</v>
+        <v>0.5067873303167421</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6668,7 +6668,7 @@
         <v>290</v>
       </c>
       <c r="B41">
-        <v>0.5132575757575758</v>
+        <v>0.4236526946107784</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6676,7 +6676,7 @@
         <v>291</v>
       </c>
       <c r="B42">
-        <v>0.3325062034739454</v>
+        <v>0.3107658157602664</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6684,7 +6684,7 @@
         <v>292</v>
       </c>
       <c r="B43">
-        <v>0.88</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6692,7 +6692,7 @@
         <v>293</v>
       </c>
       <c r="B44">
-        <v>0.92</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6700,7 +6700,7 @@
         <v>294</v>
       </c>
       <c r="B45">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6708,7 +6708,7 @@
         <v>295</v>
       </c>
       <c r="B46">
-        <v>0.5183946488294314</v>
+        <v>0.4308093994778068</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6716,7 +6716,7 @@
         <v>296</v>
       </c>
       <c r="B47">
-        <v>0.5916666666666667</v>
+        <v>0.5228070175438596</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6724,7 +6724,7 @@
         <v>297</v>
       </c>
       <c r="B48">
-        <v>0.2612359550561798</v>
+        <v>0.2385786802030457</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6732,7 +6732,7 @@
         <v>298</v>
       </c>
       <c r="B49">
-        <v>0.5329861111111112</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6740,7 +6740,7 @@
         <v>299</v>
       </c>
       <c r="B50">
-        <v>0.4196018376722818</v>
+        <v>0.3848275862068966</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6748,7 +6748,7 @@
         <v>300</v>
       </c>
       <c r="B51">
-        <v>0.3141263940520446</v>
+        <v>0.2931323283082077</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6756,7 +6756,7 @@
         <v>301</v>
       </c>
       <c r="B52">
-        <v>0.5508982035928144</v>
+        <v>0.4948453608247423</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6764,7 +6764,7 @@
         <v>302</v>
       </c>
       <c r="B53">
-        <v>0.648936170212766</v>
+        <v>0.5799086757990868</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6772,7 +6772,7 @@
         <v>303</v>
       </c>
       <c r="B54">
-        <v>0.5514018691588785</v>
+        <v>0.4973821989528796</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6780,7 +6780,7 @@
         <v>304</v>
       </c>
       <c r="B55">
-        <v>0.5878594249201278</v>
+        <v>0.5433526011560693</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6788,7 +6788,7 @@
         <v>305</v>
       </c>
       <c r="B56">
-        <v>0.4375</v>
+        <v>0.3871473354231975</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6796,7 +6796,7 @@
         <v>306</v>
       </c>
       <c r="B57">
-        <v>0.5014164305949008</v>
+        <v>0.4656488549618321</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6804,7 +6804,7 @@
         <v>307</v>
       </c>
       <c r="B58">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6812,7 +6812,7 @@
         <v>308</v>
       </c>
       <c r="B59">
-        <v>0.4554794520547945</v>
+        <v>0.4062038404726735</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6820,7 +6820,7 @@
         <v>309</v>
       </c>
       <c r="B60">
-        <v>0.5115646258503401</v>
+        <v>0.4593301435406699</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6828,7 +6828,7 @@
         <v>310</v>
       </c>
       <c r="B61">
-        <v>0.4815905743740795</v>
+        <v>0.4438502673796791</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6836,7 +6836,7 @@
         <v>311</v>
       </c>
       <c r="B62">
-        <v>0.7346938775510204</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6844,7 +6844,7 @@
         <v>312</v>
       </c>
       <c r="B63">
-        <v>0.6870229007633588</v>
+        <v>0.6575342465753424</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6852,7 +6852,7 @@
         <v>313</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6860,7 +6860,7 @@
         <v>314</v>
       </c>
       <c r="B65">
-        <v>0.5355648535564853</v>
+        <v>0.5018587360594795</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6868,7 +6868,7 @@
         <v>315</v>
       </c>
       <c r="B66">
-        <v>0.4614121510673235</v>
+        <v>0.4215116279069768</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6876,7 +6876,7 @@
         <v>316</v>
       </c>
       <c r="B67">
-        <v>0.8846153846153846</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6884,7 +6884,7 @@
         <v>317</v>
       </c>
       <c r="B68">
-        <v>0.9565217391304348</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6892,7 +6892,7 @@
         <v>318</v>
       </c>
       <c r="B69">
-        <v>0.9230769230769231</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6900,7 +6900,7 @@
         <v>319</v>
       </c>
       <c r="B70">
-        <v>0.9047619047619048</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6908,7 +6908,7 @@
         <v>320</v>
       </c>
       <c r="B71">
-        <v>0.9047619047619048</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6916,7 +6916,7 @@
         <v>321</v>
       </c>
       <c r="B72">
-        <v>0.8064516129032258</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6924,7 +6924,7 @@
         <v>322</v>
       </c>
       <c r="B73">
-        <v>0.519927536231884</v>
+        <v>0.4639498432601881</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6932,7 +6932,7 @@
         <v>323</v>
       </c>
       <c r="B74">
-        <v>0.9444444444444444</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6940,7 +6940,7 @@
         <v>324</v>
       </c>
       <c r="B75">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6948,7 +6948,7 @@
         <v>325</v>
       </c>
       <c r="B76">
-        <v>0.4233409610983982</v>
+        <v>0.3808080808080808</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6964,7 +6964,7 @@
         <v>327</v>
       </c>
       <c r="B78">
-        <v>0.3536585365853658</v>
+        <v>0.3162692847124824</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6972,7 +6972,7 @@
         <v>328</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6980,7 +6980,7 @@
         <v>329</v>
       </c>
       <c r="B80">
-        <v>0.8695652173913043</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6988,7 +6988,7 @@
         <v>330</v>
       </c>
       <c r="B81">
-        <v>0.3330940416367552</v>
+        <v>0.2942260442260442</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6996,7 +6996,7 @@
         <v>331</v>
       </c>
       <c r="B82">
-        <v>0.8</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7004,7 +7004,7 @@
         <v>332</v>
       </c>
       <c r="B83">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7012,7 +7012,7 @@
         <v>333</v>
       </c>
       <c r="B84">
-        <v>0.4967032967032967</v>
+        <v>0.4237588652482269</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7020,7 +7020,7 @@
         <v>334</v>
       </c>
       <c r="B85">
-        <v>0.5923566878980892</v>
+        <v>0.5536723163841808</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7028,7 +7028,7 @@
         <v>335</v>
       </c>
       <c r="B86">
-        <v>0.5565749235474006</v>
+        <v>0.5251396648044693</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7036,7 +7036,7 @@
         <v>336</v>
       </c>
       <c r="B87">
-        <v>0.5706806282722513</v>
+        <v>0.5251141552511416</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7044,7 +7044,7 @@
         <v>337</v>
       </c>
       <c r="B88">
-        <v>0.7075471698113207</v>
+        <v>0.6692913385826772</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7052,7 +7052,7 @@
         <v>338</v>
       </c>
       <c r="B89">
-        <v>0.6190476190476191</v>
+        <v>0.5804597701149425</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7060,7 +7060,7 @@
         <v>339</v>
       </c>
       <c r="B90">
-        <v>0.4595238095238095</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7068,7 +7068,7 @@
         <v>340</v>
       </c>
       <c r="B91">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7198,7 +7198,7 @@
         <v>342</v>
       </c>
       <c r="B2">
-        <v>0.5706214689265536</v>
+        <v>0.5012106537530266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7206,7 +7206,7 @@
         <v>343</v>
       </c>
       <c r="B3">
-        <v>0.4910313901345291</v>
+        <v>0.4512922465208747</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7214,7 +7214,7 @@
         <v>344</v>
       </c>
       <c r="B4">
-        <v>0.4614264919941776</v>
+        <v>0.4211886304909561</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7222,7 +7222,7 @@
         <v>345</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6063348416289592</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7230,7 +7230,7 @@
         <v>346</v>
       </c>
       <c r="B6">
-        <v>0.5185185185185185</v>
+        <v>0.4623287671232877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7238,7 +7238,7 @@
         <v>347</v>
       </c>
       <c r="B7">
-        <v>0.4643179765130985</v>
+        <v>0.4125098970704671</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7246,7 +7246,7 @@
         <v>348</v>
       </c>
       <c r="B8">
-        <v>0.4336075205640423</v>
+        <v>0.400208986415883</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7254,7 +7254,7 @@
         <v>349</v>
       </c>
       <c r="B9">
-        <v>0.3468858131487889</v>
+        <v>0.3114134542705971</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7262,7 +7262,7 @@
         <v>350</v>
       </c>
       <c r="B10">
-        <v>0.5209580838323353</v>
+        <v>0.4643478260869565</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7270,7 +7270,7 @@
         <v>351</v>
       </c>
       <c r="B11">
-        <v>0.4874623871614844</v>
+        <v>0.4385499557913351</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7278,7 +7278,7 @@
         <v>352</v>
       </c>
       <c r="B12">
-        <v>0.6830985915492958</v>
+        <v>0.6687898089171974</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7286,7 +7286,7 @@
         <v>353</v>
       </c>
       <c r="B13">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7294,7 +7294,7 @@
         <v>354</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7310,7 +7310,7 @@
         <v>356</v>
       </c>
       <c r="B16">
-        <v>0.6284403669724771</v>
+        <v>0.5642023346303502</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7318,7 +7318,7 @@
         <v>357</v>
       </c>
       <c r="B17">
-        <v>0.4826021180030257</v>
+        <v>0.4368421052631579</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7326,7 +7326,7 @@
         <v>358</v>
       </c>
       <c r="B18">
-        <v>0.95</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7334,7 +7334,7 @@
         <v>359</v>
       </c>
       <c r="B19">
-        <v>0.5396341463414634</v>
+        <v>0.4893048128342246</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7342,7 +7342,7 @@
         <v>360</v>
       </c>
       <c r="B20">
-        <v>0.4779411764705883</v>
+        <v>0.4026442307692308</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7358,7 +7358,7 @@
         <v>362</v>
       </c>
       <c r="B22">
-        <v>0.9</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7366,7 +7366,7 @@
         <v>363</v>
       </c>
       <c r="B23">
-        <v>0.5949367088607594</v>
+        <v>0.5329949238578681</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7374,7 +7374,7 @@
         <v>364</v>
       </c>
       <c r="B24">
-        <v>0.5121951219512195</v>
+        <v>0.4730538922155689</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7382,7 +7382,7 @@
         <v>365</v>
       </c>
       <c r="B25">
-        <v>0.5521235521235521</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7390,7 +7390,7 @@
         <v>366</v>
       </c>
       <c r="B26">
-        <v>0.4104410441044105</v>
+        <v>0.3735035913806863</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7398,7 +7398,7 @@
         <v>367</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7406,7 +7406,7 @@
         <v>368</v>
       </c>
       <c r="B28">
-        <v>0.8333333333333334</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7414,7 +7414,7 @@
         <v>369</v>
       </c>
       <c r="B29">
-        <v>0.5560747663551402</v>
+        <v>0.5254237288135594</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7422,7 +7422,7 @@
         <v>370</v>
       </c>
       <c r="B30">
-        <v>0.7846153846153846</v>
+        <v>0.7746478873239436</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7430,7 +7430,7 @@
         <v>371</v>
       </c>
       <c r="B31">
-        <v>0.9565217391304348</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7438,7 +7438,7 @@
         <v>372</v>
       </c>
       <c r="B32">
-        <v>0.4593373493975904</v>
+        <v>0.4175392670157068</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7446,7 +7446,7 @@
         <v>373</v>
       </c>
       <c r="B33">
-        <v>0.4744094488188976</v>
+        <v>0.4328097731239092</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>374</v>
       </c>
       <c r="B34">
-        <v>0.4096045197740113</v>
+        <v>0.3858064516129032</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>375</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.4237588652482269</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>376</v>
       </c>
       <c r="B36">
-        <v>0.3922789539227896</v>
+        <v>0.3645484949832776</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>377</v>
       </c>
       <c r="B37">
-        <v>0.5544871794871795</v>
+        <v>0.5195530726256983</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>378</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>379</v>
       </c>
       <c r="B39">
-        <v>0.2471145309263096</v>
+        <v>0.2226613965744401</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>380</v>
       </c>
       <c r="B40">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>381</v>
       </c>
       <c r="B41">
-        <v>0.4704968944099379</v>
+        <v>0.4327323162274618</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>383</v>
       </c>
       <c r="B43">
-        <v>0.5299760191846523</v>
+        <v>0.4780793319415449</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>384</v>
       </c>
       <c r="B44">
-        <v>0.5369318181818182</v>
+        <v>0.4961636828644501</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>385</v>
       </c>
       <c r="B45">
-        <v>0.5583756345177665</v>
+        <v>0.5168539325842697</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>386</v>
       </c>
       <c r="B46">
-        <v>0.4211438474870017</v>
+        <v>0.3814589665653496</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>387</v>
       </c>
       <c r="B47">
-        <v>0.6017316017316018</v>
+        <v>0.5509433962264151</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>388</v>
       </c>
       <c r="B48">
-        <v>0.5411255411255411</v>
+        <v>0.5140562248995983</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>389</v>
       </c>
       <c r="B49">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>390</v>
       </c>
       <c r="B50">
-        <v>0.4270650263620387</v>
+        <v>0.3772455089820359</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>391</v>
       </c>
       <c r="B51">
-        <v>0.428087986463621</v>
+        <v>0.3876651982378855</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>392</v>
       </c>
       <c r="B52">
-        <v>0.6742857142857143</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>393</v>
       </c>
       <c r="B53">
-        <v>0.5257270693512305</v>
+        <v>0.4809619238476954</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>394</v>
       </c>
       <c r="B54">
-        <v>0.6483050847457628</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>395</v>
       </c>
       <c r="B55">
-        <v>0.467005076142132</v>
+        <v>0.4161220043572985</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>396</v>
       </c>
       <c r="B56">
-        <v>0.9444444444444444</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>397</v>
       </c>
       <c r="B57">
-        <v>0.5815217391304348</v>
+        <v>0.5201793721973094</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>398</v>
       </c>
       <c r="B58">
-        <v>0.4954407294832827</v>
+        <v>0.4733893557422969</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>399</v>
       </c>
       <c r="B59">
-        <v>0.4849137931034483</v>
+        <v>0.4140893470790378</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>400</v>
       </c>
       <c r="B60">
-        <v>0.6811594202898551</v>
+        <v>0.6379310344827587</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>401</v>
       </c>
       <c r="B61">
-        <v>0.6221374045801527</v>
+        <v>0.5462962962962963</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>402</v>
       </c>
       <c r="B62">
-        <v>0.5862068965517241</v>
+        <v>0.5256410256410257</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>404</v>
       </c>
       <c r="B64">
-        <v>0.5806451612903226</v>
+        <v>0.5318471337579618</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>405</v>
       </c>
       <c r="B65">
-        <v>0.8695652173913043</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>406</v>
       </c>
       <c r="B66">
-        <v>0.541501976284585</v>
+        <v>0.5144927536231884</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>407</v>
       </c>
       <c r="B67">
-        <v>0.5641025641025641</v>
+        <v>0.5542168674698795</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>408</v>
       </c>
       <c r="B68">
-        <v>0.5235294117647059</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>409</v>
       </c>
       <c r="B69">
-        <v>0.5658914728682171</v>
+        <v>0.527972027972028</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>410</v>
       </c>
       <c r="B70">
-        <v>0.4030769230769231</v>
+        <v>0.3675675675675676</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7750,7 +7750,7 @@
         <v>411</v>
       </c>
       <c r="B71">
-        <v>0.5533980582524272</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7758,7 +7758,7 @@
         <v>412</v>
       </c>
       <c r="B72">
-        <v>0.6842105263157895</v>
+        <v>0.5943775100401606</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7766,7 +7766,7 @@
         <v>413</v>
       </c>
       <c r="B73">
-        <v>0.618421052631579</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7774,7 +7774,7 @@
         <v>414</v>
       </c>
       <c r="B74">
-        <v>0.5756457564575646</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7782,7 +7782,7 @@
         <v>415</v>
       </c>
       <c r="B75">
-        <v>0.4532710280373832</v>
+        <v>0.4139344262295082</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7790,7 +7790,7 @@
         <v>416</v>
       </c>
       <c r="B76">
-        <v>0.5652173913043478</v>
+        <v>0.52734375</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7798,7 +7798,7 @@
         <v>417</v>
       </c>
       <c r="B77">
-        <v>0.6127819548872181</v>
+        <v>0.554140127388535</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7806,7 +7806,7 @@
         <v>418</v>
       </c>
       <c r="B78">
-        <v>0.5766666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -7814,7 +7814,7 @@
         <v>419</v>
       </c>
       <c r="B79">
-        <v>0.5905172413793104</v>
+        <v>0.5464684014869888</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>420</v>
       </c>
       <c r="B80">
-        <v>0.6422764227642277</v>
+        <v>0.5754385964912281</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>421</v>
       </c>
       <c r="B81">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>422</v>
       </c>
       <c r="B82">
-        <v>0.5887850467289719</v>
+        <v>0.5225464190981433</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>423</v>
       </c>
       <c r="B83">
-        <v>0.7005988023952096</v>
+        <v>0.6772486772486772</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>424</v>
       </c>
       <c r="B84">
-        <v>0.4493670886075949</v>
+        <v>0.4135021097046414</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -7862,7 +7862,7 @@
         <v>425</v>
       </c>
       <c r="B85">
-        <v>0.4623893805309734</v>
+        <v>0.4105461393596987</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -7870,7 +7870,7 @@
         <v>426</v>
       </c>
       <c r="B86">
-        <v>0.5467836257309941</v>
+        <v>0.4863523573200992</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7878,7 +7878,7 @@
         <v>427</v>
       </c>
       <c r="B87">
-        <v>0.5185185185185185</v>
+        <v>0.4879725085910653</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -7886,7 +7886,7 @@
         <v>428</v>
       </c>
       <c r="B88">
-        <v>0.5063829787234042</v>
+        <v>0.4618181818181818</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7894,7 +7894,7 @@
         <v>429</v>
       </c>
       <c r="B89">
-        <v>0.4339622641509434</v>
+        <v>0.4009779951100245</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -7902,7 +7902,7 @@
         <v>430</v>
       </c>
       <c r="B90">
-        <v>0.4178861788617886</v>
+        <v>0.3818443804034582</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -7910,7 +7910,7 @@
         <v>431</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7918,7 +7918,7 @@
         <v>432</v>
       </c>
       <c r="B92">
-        <v>0.4704225352112676</v>
+        <v>0.4362745098039216</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7926,7 +7926,7 @@
         <v>433</v>
       </c>
       <c r="B93">
-        <v>0.413312693498452</v>
+        <v>0.3652058432934927</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -7934,7 +7934,7 @@
         <v>434</v>
       </c>
       <c r="B94">
-        <v>0.5094339622641509</v>
+        <v>0.4774193548387097</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7942,7 +7942,7 @@
         <v>435</v>
       </c>
       <c r="B95">
-        <v>0.5364321608040201</v>
+        <v>0.4643237486687966</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -7950,7 +7950,7 @@
         <v>436</v>
       </c>
       <c r="B96">
-        <v>0.5054704595185996</v>
+        <v>0.4609375</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>437</v>
       </c>
       <c r="B97">
-        <v>0.4378194207836457</v>
+        <v>0.3888070692194404</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>438</v>
       </c>
       <c r="B98">
-        <v>0.4875444839857651</v>
+        <v>0.4519230769230769</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7974,7 +7974,7 @@
         <v>439</v>
       </c>
       <c r="B99">
-        <v>0.470703125</v>
+        <v>0.4228187919463087</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -7982,7 +7982,7 @@
         <v>440</v>
       </c>
       <c r="B100">
-        <v>0.48</v>
+        <v>0.4527027027027027</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7990,7 +7990,7 @@
         <v>441</v>
       </c>
       <c r="B101">
-        <v>0.5406360424028268</v>
+        <v>0.4968553459119497</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7998,7 +7998,7 @@
         <v>442</v>
       </c>
       <c r="B102">
-        <v>0.5297619047619048</v>
+        <v>0.4960212201591512</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8006,7 +8006,7 @@
         <v>443</v>
       </c>
       <c r="B103">
-        <v>0.395945945945946</v>
+        <v>0.3568129330254042</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -8014,7 +8014,7 @@
         <v>444</v>
       </c>
       <c r="B104">
-        <v>0.571969696969697</v>
+        <v>0.531986531986532</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -8022,7 +8022,7 @@
         <v>445</v>
       </c>
       <c r="B105">
-        <v>0.6512820512820513</v>
+        <v>0.6081081081081081</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -8030,7 +8030,7 @@
         <v>446</v>
       </c>
       <c r="B106">
-        <v>0.5053763440860215</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -8038,7 +8038,7 @@
         <v>447</v>
       </c>
       <c r="B107">
-        <v>0.5627376425855514</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>448</v>
       </c>
       <c r="B108">
-        <v>0.6896551724137931</v>
+        <v>0.6343283582089553</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>449</v>
       </c>
       <c r="B109">
-        <v>0.6536585365853659</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -8062,7 +8062,7 @@
         <v>450</v>
       </c>
       <c r="B110">
-        <v>0.5846645367412141</v>
+        <v>0.5065963060686016</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -8070,7 +8070,7 @@
         <v>451</v>
       </c>
       <c r="B111">
-        <v>0.5686813186813187</v>
+        <v>0.5286783042394015</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -8078,7 +8078,7 @@
         <v>452</v>
       </c>
       <c r="B112">
-        <v>0.5040650406504065</v>
+        <v>0.4558303886925795</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8086,7 +8086,7 @@
         <v>453</v>
       </c>
       <c r="B113">
-        <v>0.4605344934742076</v>
+        <v>0.4158800666296502</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -8094,7 +8094,7 @@
         <v>454</v>
       </c>
       <c r="B114">
-        <v>0.573076923076923</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8102,7 +8102,7 @@
         <v>455</v>
       </c>
       <c r="B115">
-        <v>0.5773955773955773</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>456</v>
       </c>
       <c r="B116">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8118,7 +8118,7 @@
         <v>457</v>
       </c>
       <c r="B117">
-        <v>0.4515418502202643</v>
+        <v>0.4052044609665427</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8126,7 +8126,7 @@
         <v>458</v>
       </c>
       <c r="B118">
-        <v>0.5314685314685315</v>
+        <v>0.4787878787878788</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8134,7 +8134,7 @@
         <v>459</v>
       </c>
       <c r="B119">
-        <v>0.6956521739130435</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8142,7 +8142,7 @@
         <v>460</v>
       </c>
       <c r="B120">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>461</v>
       </c>
       <c r="B121">
-        <v>0.4672897196261682</v>
+        <v>0.4321678321678322</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>462</v>
       </c>
       <c r="B122">
-        <v>0.45</v>
+        <v>0.3890865954922895</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>463</v>
       </c>
       <c r="B123">
-        <v>0.6324503311258278</v>
+        <v>0.592814371257485</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>464</v>
       </c>
       <c r="B124">
-        <v>0.486646884272997</v>
+        <v>0.4389610389610389</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>465</v>
       </c>
       <c r="B125">
-        <v>0.5038461538461538</v>
+        <v>0.4718309859154929</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8190,7 +8190,7 @@
         <v>466</v>
       </c>
       <c r="B126">
-        <v>0.4975728155339806</v>
+        <v>0.4598698481561822</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8198,7 +8198,7 @@
         <v>467</v>
       </c>
       <c r="B127">
-        <v>0.6267281105990783</v>
+        <v>0.5975103734439834</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8206,7 +8206,7 @@
         <v>468</v>
       </c>
       <c r="B128">
-        <v>0.8666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>469</v>
       </c>
       <c r="B129">
-        <v>0.6923076923076923</v>
+        <v>0.6139240506329114</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8222,7 +8222,7 @@
         <v>470</v>
       </c>
       <c r="B130">
-        <v>0.8571428571428571</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8230,7 +8230,7 @@
         <v>471</v>
       </c>
       <c r="B131">
-        <v>0.6303317535545023</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8238,7 +8238,7 @@
         <v>472</v>
       </c>
       <c r="B132">
-        <v>0.8974358974358975</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8246,7 +8246,7 @@
         <v>473</v>
       </c>
       <c r="B133">
-        <v>0.6178010471204188</v>
+        <v>0.5740740740740741</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>474</v>
       </c>
       <c r="B134">
-        <v>0.6896551724137931</v>
+        <v>0.6507936507936508</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>475</v>
       </c>
       <c r="B135">
-        <v>0.4284077892325315</v>
+        <v>0.384995064165844</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>476</v>
       </c>
       <c r="B136">
-        <v>0.5327380952380952</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>477</v>
       </c>
       <c r="B137">
-        <v>0.6172248803827751</v>
+        <v>0.5551020408163265</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>478</v>
       </c>
       <c r="B138">
-        <v>0.6227758007117438</v>
+        <v>0.572347266881029</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>479</v>
       </c>
       <c r="B139">
-        <v>0.7583333333333333</v>
+        <v>0.6644295302013423</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>480</v>
       </c>
       <c r="B140">
-        <v>0.6067961165048543</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>481</v>
       </c>
       <c r="B141">
-        <v>0.5445859872611465</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>482</v>
       </c>
       <c r="B142">
-        <v>0.5189504373177842</v>
+        <v>0.4818652849740933</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>483</v>
       </c>
       <c r="B143">
-        <v>0.4723618090452261</v>
+        <v>0.4292035398230089</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>484</v>
       </c>
       <c r="B144">
-        <v>0.5769230769230769</v>
+        <v>0.5366568914956011</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>485</v>
       </c>
       <c r="B145">
-        <v>0.3579295154185022</v>
+        <v>0.3340060544904137</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>486</v>
       </c>
       <c r="B146">
-        <v>0.5882352941176471</v>
+        <v>0.5432692307692307</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>487</v>
       </c>
       <c r="B147">
-        <v>0.5934959349593496</v>
+        <v>0.5464285714285714</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>488</v>
       </c>
       <c r="B148">
-        <v>0.3752577319587629</v>
+        <v>0.3210702341137124</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>489</v>
       </c>
       <c r="B149">
-        <v>0.5786666666666667</v>
+        <v>0.5347721822541966</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8382,7 +8382,7 @@
         <v>490</v>
       </c>
       <c r="B150">
-        <v>0.3758262511803588</v>
+        <v>0.3400167084377611</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8390,7 +8390,7 @@
         <v>491</v>
       </c>
       <c r="B151">
-        <v>0.5939086294416244</v>
+        <v>0.5318518518518518</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8398,7 +8398,7 @@
         <v>492</v>
       </c>
       <c r="B152">
-        <v>0.5179856115107914</v>
+        <v>0.4822006472491909</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8406,7 +8406,7 @@
         <v>493</v>
       </c>
       <c r="B153">
-        <v>0.6296296296296297</v>
+        <v>0.5898617511520737</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8414,7 +8414,7 @@
         <v>494</v>
       </c>
       <c r="B154">
-        <v>0.6138996138996139</v>
+        <v>0.5521885521885522</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8422,7 +8422,7 @@
         <v>495</v>
       </c>
       <c r="B155">
-        <v>0.6089385474860335</v>
+        <v>0.5812807881773399</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8430,7 +8430,7 @@
         <v>496</v>
       </c>
       <c r="B156">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8438,7 +8438,7 @@
         <v>497</v>
       </c>
       <c r="B157">
-        <v>0.4393404004711425</v>
+        <v>0.390194075587334</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8446,7 +8446,7 @@
         <v>498</v>
       </c>
       <c r="B158">
-        <v>0.5815384615384616</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8454,7 +8454,7 @@
         <v>499</v>
       </c>
       <c r="B159">
-        <v>0.579185520361991</v>
+        <v>0.551440329218107</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8462,7 +8462,7 @@
         <v>500</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -8470,7 +8470,7 @@
         <v>501</v>
       </c>
       <c r="B161">
-        <v>0.541958041958042</v>
+        <v>0.5015384615384615</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -8478,7 +8478,7 @@
         <v>502</v>
       </c>
       <c r="B162">
-        <v>0.7425742574257426</v>
+        <v>0.6694214876033058</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -8486,7 +8486,7 @@
         <v>503</v>
       </c>
       <c r="B163">
-        <v>0.96</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -8494,7 +8494,7 @@
         <v>504</v>
       </c>
       <c r="B164">
-        <v>0.9545454545454546</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8502,7 +8502,7 @@
         <v>505</v>
       </c>
       <c r="B165">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -8510,7 +8510,7 @@
         <v>506</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -8518,7 +8518,7 @@
         <v>507</v>
       </c>
       <c r="B167">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -8526,7 +8526,7 @@
         <v>508</v>
       </c>
       <c r="B168">
-        <v>0.9523809523809523</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8534,7 +8534,7 @@
         <v>509</v>
       </c>
       <c r="B169">
-        <v>0.9166666666666666</v>
+        <v>0.8545454545454545</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -8542,7 +8542,7 @@
         <v>510</v>
       </c>
       <c r="B170">
-        <v>0.5357142857142857</v>
+        <v>0.4759358288770054</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8550,7 +8550,7 @@
         <v>511</v>
       </c>
       <c r="B171">
-        <v>0.9375</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8558,7 +8558,7 @@
         <v>512</v>
       </c>
       <c r="B172">
-        <v>0.5169172932330827</v>
+        <v>0.4735099337748344</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -8566,7 +8566,7 @@
         <v>513</v>
       </c>
       <c r="B173">
-        <v>0.4765258215962441</v>
+        <v>0.4398340248962656</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -8574,7 +8574,7 @@
         <v>514</v>
       </c>
       <c r="B174">
-        <v>0.8333333333333334</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8582,7 +8582,7 @@
         <v>515</v>
       </c>
       <c r="B175">
-        <v>0.4335664335664335</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8590,7 +8590,7 @@
         <v>516</v>
       </c>
       <c r="B176">
-        <v>0.631336405529954</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8606,7 +8606,7 @@
         <v>518</v>
       </c>
       <c r="B178">
-        <v>0.4938650306748466</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8614,7 +8614,7 @@
         <v>519</v>
       </c>
       <c r="B179">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -8622,7 +8622,7 @@
         <v>520</v>
       </c>
       <c r="B180">
-        <v>0.5482456140350878</v>
+        <v>0.5158730158730159</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8638,7 +8638,7 @@
         <v>522</v>
       </c>
       <c r="B182">
-        <v>0.8571428571428571</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8646,7 +8646,7 @@
         <v>523</v>
       </c>
       <c r="B183">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8654,7 +8654,7 @@
         <v>524</v>
       </c>
       <c r="B184">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8662,7 +8662,7 @@
         <v>525</v>
       </c>
       <c r="B185">
-        <v>0.9565217391304348</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -8670,7 +8670,7 @@
         <v>526</v>
       </c>
       <c r="B186">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8678,7 +8678,7 @@
         <v>527</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8686,7 +8686,7 @@
         <v>528</v>
       </c>
       <c r="B188">
-        <v>0.530448717948718</v>
+        <v>0.4836879432624113</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8694,7 +8694,7 @@
         <v>529</v>
       </c>
       <c r="B189">
-        <v>0.8928571428571429</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8702,7 +8702,7 @@
         <v>530</v>
       </c>
       <c r="B190">
-        <v>0.9523809523809523</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -8710,7 +8710,7 @@
         <v>531</v>
       </c>
       <c r="B191">
-        <v>0.5797665369649806</v>
+        <v>0.5340136054421769</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8718,7 +8718,7 @@
         <v>532</v>
       </c>
       <c r="B192">
-        <v>0.8846153846153846</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8726,7 +8726,7 @@
         <v>533</v>
       </c>
       <c r="B193">
-        <v>0.9473684210526315</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8742,7 +8742,7 @@
         <v>535</v>
       </c>
       <c r="B195">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -8750,7 +8750,7 @@
         <v>536</v>
       </c>
       <c r="B196">
-        <v>0.5844155844155844</v>
+        <v>0.5032258064516129</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -8758,7 +8758,7 @@
         <v>537</v>
       </c>
       <c r="B197">
-        <v>0.8846153846153846</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8766,7 +8766,7 @@
         <v>538</v>
       </c>
       <c r="B198">
-        <v>0.9285714285714286</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8774,7 +8774,7 @@
         <v>539</v>
       </c>
       <c r="B199">
-        <v>0.9565217391304348</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8782,7 +8782,7 @@
         <v>540</v>
       </c>
       <c r="B200">
-        <v>0.7254901960784313</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -8790,7 +8790,7 @@
         <v>541</v>
       </c>
       <c r="B201">
-        <v>0.8604651162790697</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -8798,7 +8798,7 @@
         <v>542</v>
       </c>
       <c r="B202">
-        <v>0.9565217391304348</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -8806,7 +8806,7 @@
         <v>543</v>
       </c>
       <c r="B203">
-        <v>0.6084656084656085</v>
+        <v>0.5721153846153846</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -8814,7 +8814,7 @@
         <v>544</v>
       </c>
       <c r="B204">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -8822,7 +8822,7 @@
         <v>545</v>
       </c>
       <c r="B205">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8830,7 +8830,7 @@
         <v>546</v>
       </c>
       <c r="B206">
-        <v>0.4758064516129032</v>
+        <v>0.4159090909090909</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8838,7 +8838,7 @@
         <v>547</v>
       </c>
       <c r="B207">
-        <v>0.5403225806451613</v>
+        <v>0.4892857142857143</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8846,7 +8846,7 @@
         <v>548</v>
       </c>
       <c r="B208">
-        <v>0.896551724137931</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8854,7 +8854,7 @@
         <v>549</v>
       </c>
       <c r="B209">
-        <v>0.92</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8862,7 +8862,7 @@
         <v>550</v>
       </c>
       <c r="B210">
-        <v>0.8260869565217391</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -8870,7 +8870,7 @@
         <v>551</v>
       </c>
       <c r="B211">
-        <v>0.4924874791318865</v>
+        <v>0.4517087667161961</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -8878,7 +8878,7 @@
         <v>552</v>
       </c>
       <c r="B212">
-        <v>0.3842364532019704</v>
+        <v>0.3501646542261251</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8886,7 +8886,7 @@
         <v>553</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -8894,7 +8894,7 @@
         <v>554</v>
       </c>
       <c r="B214">
-        <v>0.3350488934637159</v>
+        <v>0.3105065666041276</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -8902,7 +8902,7 @@
         <v>555</v>
       </c>
       <c r="B215">
-        <v>0.3819796954314721</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -8910,7 +8910,7 @@
         <v>556</v>
       </c>
       <c r="B216">
-        <v>0.8518518518518519</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8918,7 +8918,7 @@
         <v>557</v>
       </c>
       <c r="B217">
-        <v>0.6312849162011173</v>
+        <v>0.5960591133004927</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8926,7 +8926,7 @@
         <v>558</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -8934,7 +8934,7 @@
         <v>559</v>
       </c>
       <c r="B219">
-        <v>0.5746606334841629</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -8942,7 +8942,7 @@
         <v>560</v>
       </c>
       <c r="B220">
-        <v>0.5860927152317881</v>
+        <v>0.5302593659942363</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8950,7 +8950,7 @@
         <v>561</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -8958,7 +8958,7 @@
         <v>562</v>
       </c>
       <c r="B222">
-        <v>0.5645645645645646</v>
+        <v>0.5335120643431636</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8966,7 +8966,7 @@
         <v>563</v>
       </c>
       <c r="B223">
-        <v>0.4198564593301435</v>
+        <v>0.3780104712041885</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8974,7 +8974,7 @@
         <v>564</v>
       </c>
       <c r="B224">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
